--- a/biology/Écologie/Une_île_(série_télévisée)/Une_île_(série_télévisée).xlsx
+++ b/biology/Écologie/Une_île_(série_télévisée)/Une_île_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une île est une minisérie télévisée française en six épisodes de 45 minutes créée par Gaia Guasti et Aurélien Molas, réalisée par Julien Trousselier et diffusée les 9 et 16 janvier 2020 sur Arte[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une île est une minisérie télévisée française en six épisodes de 45 minutes créée par Gaia Guasti et Aurélien Molas, réalisée par Julien Trousselier et diffusée les 9 et 16 janvier 2020 sur Arte,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur une île en proie à des problèmes de pêche, une mystérieuse femme venue de la mer commet plusieurs meurtres.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Julien Trousselier
 Création : Gaia Guasti, Aurélien Molas d'après une idée originale de Simon Moutaïrou avec la collaboration de Marcia Romano
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Noée Abita : Chloé
 Laetitia Casta : Théa
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en Corse d'août à novembre 2018[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Corse d'août à novembre 2018.
 </t>
         </is>
       </c>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La série se découpe en six épisodes :
 Les habitants d'une île non identifiée ont de plus en plus de mal à vivre de la pêche. Certains villageois se tournent vers des trafics illégaux et les jeunes de l'île ne pensent qu'à partir ailleurs. Sabine emmène son amie Chloé à une fête organisée sur la plage. La fête tourne mal quand un jeune homme essaye de profiter d'elle avant d'être conduit à l'hôpital entre la vie et la mort. Chloé ne sait pas ce qu'il s'est passé. Pendant ce temps, deux pêcheurs sont portés disparus et une mystérieuse femme est retrouvée dans la cale de leur bateau. La femme dit seulement s'appeler Théa.
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Une_%C3%AEle_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Une_île_(série_télévisée)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,9 +705,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Festival Séries Mania 2019 : Prix de la meilleure série française[4]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival Séries Mania 2019 : Prix de la meilleure série française</t>
         </is>
       </c>
     </row>
